--- a/analysis/ACM_analysis.xlsx
+++ b/analysis/ACM_analysis.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CAAF768B-EC9A-40B3-9BEA-2643EAD71F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{127ACA52-5F80-4FFD-A58F-1364C8729B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD564F2A-DABA-4B0F-9B33-AD8BFE41CCBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD564F2A-DABA-4B0F-9B33-AD8BFE41CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="cfr_by_week.csv.ACM" sheetId="1" r:id="rId2"/>
-    <sheet name="about" sheetId="3" r:id="rId3"/>
+    <sheet name="chart" sheetId="4" r:id="rId2"/>
+    <sheet name="cfr_by_week.csv.ACM" sheetId="1" r:id="rId3"/>
+    <sheet name="about" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="42" r:id="rId4"/>
+    <pivotCache cacheId="42" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>YearOfBirth</t>
   </si>
@@ -69,6 +70,9 @@
     <t>total death</t>
   </si>
   <si>
+    <t>unvaxxed</t>
+  </si>
+  <si>
     <t>vaxxed deaths</t>
   </si>
   <si>
@@ -106,6 +110,15 @@
   </si>
   <si>
     <t>if you were born in 1920 or later, the vaccine was a bad deal</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>vaxxed</t>
   </si>
 </sst>
 </file>
@@ -659,7 +672,2507 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1950</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> death counts in each cohort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$A$2:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$B$2:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F03-4D31-BE63-DB61158028E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vaxxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$A$2:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$C$2:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F03-4D31-BE63-DB61158028E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unvaxxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$A$2:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$D$2:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F03-4D31-BE63-DB61158028E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="326055311"/>
+        <c:axId val="326057231"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="326055311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326057231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="326057231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326055311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA9804F-4275-CFA5-3162-C50C07F4EFCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -33130,8 +35643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4F34D4-0D0E-4AFA-AB93-AED9582807F1}">
   <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33155,14 +35668,14 @@
         <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -33213,7 +35726,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <f>SUM(B70:B151)</f>
@@ -33247,7 +35760,7 @@
         <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <f>J4/J3</f>
@@ -33288,14 +35801,14 @@
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="6">
         <f>M4/M3</f>
         <v>1.3214471719555014</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -33328,7 +35841,7 @@
         <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -36894,6 +39407,1266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510ED8CB-1409-42C8-9F1F-E1551E7A7AA1}">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44354</v>
+      </c>
+      <c r="B2" s="5">
+        <v>203</v>
+      </c>
+      <c r="C2" s="5">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="0">B2-C2</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44361</v>
+      </c>
+      <c r="B3" s="5">
+        <v>207</v>
+      </c>
+      <c r="C3" s="5">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44368</v>
+      </c>
+      <c r="B4" s="5">
+        <v>209</v>
+      </c>
+      <c r="C4" s="5">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44375</v>
+      </c>
+      <c r="B5" s="5">
+        <v>205</v>
+      </c>
+      <c r="C5" s="5">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B6" s="5">
+        <v>191</v>
+      </c>
+      <c r="C6" s="5">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44389</v>
+      </c>
+      <c r="B7" s="5">
+        <v>169</v>
+      </c>
+      <c r="C7" s="5">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44396</v>
+      </c>
+      <c r="B8" s="5">
+        <v>217</v>
+      </c>
+      <c r="C8" s="5">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44403</v>
+      </c>
+      <c r="B9" s="5">
+        <v>207</v>
+      </c>
+      <c r="C9" s="5">
+        <v>117</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44410</v>
+      </c>
+      <c r="B10" s="5">
+        <v>221</v>
+      </c>
+      <c r="C10" s="5">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44417</v>
+      </c>
+      <c r="B11" s="5">
+        <v>231</v>
+      </c>
+      <c r="C11" s="5">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44424</v>
+      </c>
+      <c r="B12" s="5">
+        <v>225</v>
+      </c>
+      <c r="C12" s="5">
+        <v>139</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44431</v>
+      </c>
+      <c r="B13" s="5">
+        <v>198</v>
+      </c>
+      <c r="C13" s="5">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44438</v>
+      </c>
+      <c r="B14" s="5">
+        <v>187</v>
+      </c>
+      <c r="C14" s="5">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44445</v>
+      </c>
+      <c r="B15" s="5">
+        <v>233</v>
+      </c>
+      <c r="C15" s="5">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44452</v>
+      </c>
+      <c r="B16" s="5">
+        <v>231</v>
+      </c>
+      <c r="C16" s="5">
+        <v>135</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44459</v>
+      </c>
+      <c r="B17" s="5">
+        <v>210</v>
+      </c>
+      <c r="C17" s="5">
+        <v>126</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44466</v>
+      </c>
+      <c r="B18" s="5">
+        <v>230</v>
+      </c>
+      <c r="C18" s="5">
+        <v>129</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44473</v>
+      </c>
+      <c r="B19" s="5">
+        <v>221</v>
+      </c>
+      <c r="C19" s="5">
+        <v>135</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44480</v>
+      </c>
+      <c r="B20" s="5">
+        <v>233</v>
+      </c>
+      <c r="C20" s="5">
+        <v>141</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44487</v>
+      </c>
+      <c r="B21" s="5">
+        <v>227</v>
+      </c>
+      <c r="C21" s="5">
+        <v>133</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44494</v>
+      </c>
+      <c r="B22" s="5">
+        <v>254</v>
+      </c>
+      <c r="C22" s="5">
+        <v>146</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44501</v>
+      </c>
+      <c r="B23" s="5">
+        <v>263</v>
+      </c>
+      <c r="C23" s="5">
+        <v>146</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B24" s="5">
+        <v>330</v>
+      </c>
+      <c r="C24" s="5">
+        <v>180</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44515</v>
+      </c>
+      <c r="B25" s="5">
+        <v>328</v>
+      </c>
+      <c r="C25" s="5">
+        <v>151</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B26" s="5">
+        <v>372</v>
+      </c>
+      <c r="C26" s="5">
+        <v>205</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44529</v>
+      </c>
+      <c r="B27" s="5">
+        <v>373</v>
+      </c>
+      <c r="C27" s="5">
+        <v>182</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B28" s="5">
+        <v>391</v>
+      </c>
+      <c r="C28" s="5">
+        <v>196</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B29" s="5">
+        <v>374</v>
+      </c>
+      <c r="C29" s="5">
+        <v>202</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44550</v>
+      </c>
+      <c r="B30" s="5">
+        <v>302</v>
+      </c>
+      <c r="C30" s="5">
+        <v>149</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B31" s="5">
+        <v>319</v>
+      </c>
+      <c r="C31" s="5">
+        <v>168</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B32" s="5">
+        <v>277</v>
+      </c>
+      <c r="C32" s="5">
+        <v>160</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44571</v>
+      </c>
+      <c r="B33" s="5">
+        <v>285</v>
+      </c>
+      <c r="C33" s="5">
+        <v>157</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44578</v>
+      </c>
+      <c r="B34" s="5">
+        <v>292</v>
+      </c>
+      <c r="C34" s="5">
+        <v>174</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44585</v>
+      </c>
+      <c r="B35" s="5">
+        <v>255</v>
+      </c>
+      <c r="C35" s="5">
+        <v>146</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B36" s="5">
+        <v>300</v>
+      </c>
+      <c r="C36" s="5">
+        <v>168</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44599</v>
+      </c>
+      <c r="B37" s="5">
+        <v>281</v>
+      </c>
+      <c r="C37" s="5">
+        <v>158</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44606</v>
+      </c>
+      <c r="B38" s="5">
+        <v>246</v>
+      </c>
+      <c r="C38" s="5">
+        <v>136</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B39" s="5">
+        <v>252</v>
+      </c>
+      <c r="C39" s="5">
+        <v>138</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44620</v>
+      </c>
+      <c r="B40" s="5">
+        <v>236</v>
+      </c>
+      <c r="C40" s="5">
+        <v>132</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>44627</v>
+      </c>
+      <c r="B41" s="5">
+        <v>272</v>
+      </c>
+      <c r="C41" s="5">
+        <v>156</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44634</v>
+      </c>
+      <c r="B42" s="5">
+        <v>264</v>
+      </c>
+      <c r="C42" s="5">
+        <v>167</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44641</v>
+      </c>
+      <c r="B43" s="5">
+        <v>274</v>
+      </c>
+      <c r="C43" s="5">
+        <v>159</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44648</v>
+      </c>
+      <c r="B44" s="5">
+        <v>277</v>
+      </c>
+      <c r="C44" s="5">
+        <v>173</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44655</v>
+      </c>
+      <c r="B45" s="5">
+        <v>244</v>
+      </c>
+      <c r="C45" s="5">
+        <v>139</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44662</v>
+      </c>
+      <c r="B46" s="5">
+        <v>241</v>
+      </c>
+      <c r="C46" s="5">
+        <v>162</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44669</v>
+      </c>
+      <c r="B47" s="5">
+        <v>262</v>
+      </c>
+      <c r="C47" s="5">
+        <v>186</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44676</v>
+      </c>
+      <c r="B48" s="5">
+        <v>257</v>
+      </c>
+      <c r="C48" s="5">
+        <v>162</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44683</v>
+      </c>
+      <c r="B49" s="5">
+        <v>230</v>
+      </c>
+      <c r="C49" s="5">
+        <v>151</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>44690</v>
+      </c>
+      <c r="B50" s="5">
+        <v>282</v>
+      </c>
+      <c r="C50" s="5">
+        <v>175</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>44697</v>
+      </c>
+      <c r="B51" s="5">
+        <v>242</v>
+      </c>
+      <c r="C51" s="5">
+        <v>155</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B52" s="5">
+        <v>218</v>
+      </c>
+      <c r="C52" s="5">
+        <v>148</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>44711</v>
+      </c>
+      <c r="B53" s="5">
+        <v>198</v>
+      </c>
+      <c r="C53" s="5">
+        <v>135</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>44718</v>
+      </c>
+      <c r="B54" s="5">
+        <v>235</v>
+      </c>
+      <c r="C54" s="5">
+        <v>159</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>44725</v>
+      </c>
+      <c r="B55" s="5">
+        <v>244</v>
+      </c>
+      <c r="C55" s="5">
+        <v>162</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>44732</v>
+      </c>
+      <c r="B56" s="5">
+        <v>216</v>
+      </c>
+      <c r="C56" s="5">
+        <v>137</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>44739</v>
+      </c>
+      <c r="B57" s="5">
+        <v>239</v>
+      </c>
+      <c r="C57" s="5">
+        <v>157</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>44746</v>
+      </c>
+      <c r="B58" s="5">
+        <v>222</v>
+      </c>
+      <c r="C58" s="5">
+        <v>153</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>44753</v>
+      </c>
+      <c r="B59" s="5">
+        <v>203</v>
+      </c>
+      <c r="C59" s="5">
+        <v>146</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>44760</v>
+      </c>
+      <c r="B60" s="5">
+        <v>249</v>
+      </c>
+      <c r="C60" s="5">
+        <v>165</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>44767</v>
+      </c>
+      <c r="B61" s="5">
+        <v>248</v>
+      </c>
+      <c r="C61" s="5">
+        <v>162</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B62" s="5">
+        <v>232</v>
+      </c>
+      <c r="C62" s="5">
+        <v>170</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>44781</v>
+      </c>
+      <c r="B63" s="5">
+        <v>268</v>
+      </c>
+      <c r="C63" s="5">
+        <v>153</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>44788</v>
+      </c>
+      <c r="B64" s="5">
+        <v>205</v>
+      </c>
+      <c r="C64" s="5">
+        <v>132</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>44795</v>
+      </c>
+      <c r="B65" s="5">
+        <v>220</v>
+      </c>
+      <c r="C65" s="5">
+        <v>143</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>44802</v>
+      </c>
+      <c r="B66" s="5">
+        <v>212</v>
+      </c>
+      <c r="C66" s="5">
+        <v>149</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D83" si="1">B66-C66</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>44809</v>
+      </c>
+      <c r="B67" s="5">
+        <v>237</v>
+      </c>
+      <c r="C67" s="5">
+        <v>167</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>44816</v>
+      </c>
+      <c r="B68" s="5">
+        <v>259</v>
+      </c>
+      <c r="C68" s="5">
+        <v>162</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>44823</v>
+      </c>
+      <c r="B69" s="5">
+        <v>271</v>
+      </c>
+      <c r="C69" s="5">
+        <v>187</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>44830</v>
+      </c>
+      <c r="B70" s="5">
+        <v>250</v>
+      </c>
+      <c r="C70" s="5">
+        <v>169</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>44837</v>
+      </c>
+      <c r="B71" s="5">
+        <v>277</v>
+      </c>
+      <c r="C71" s="5">
+        <v>180</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>44844</v>
+      </c>
+      <c r="B72" s="5">
+        <v>258</v>
+      </c>
+      <c r="C72" s="5">
+        <v>161</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>44851</v>
+      </c>
+      <c r="B73" s="5">
+        <v>228</v>
+      </c>
+      <c r="C73" s="5">
+        <v>153</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>44858</v>
+      </c>
+      <c r="B74" s="5">
+        <v>231</v>
+      </c>
+      <c r="C74" s="5">
+        <v>163</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>44865</v>
+      </c>
+      <c r="B75" s="5">
+        <v>236</v>
+      </c>
+      <c r="C75" s="5">
+        <v>151</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>44872</v>
+      </c>
+      <c r="B76" s="5">
+        <v>288</v>
+      </c>
+      <c r="C76" s="5">
+        <v>198</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>44879</v>
+      </c>
+      <c r="B77" s="5">
+        <v>246</v>
+      </c>
+      <c r="C77" s="5">
+        <v>155</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>44886</v>
+      </c>
+      <c r="B78" s="5">
+        <v>263</v>
+      </c>
+      <c r="C78" s="5">
+        <v>172</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>44893</v>
+      </c>
+      <c r="B79" s="5">
+        <v>279</v>
+      </c>
+      <c r="C79" s="5">
+        <v>199</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>44900</v>
+      </c>
+      <c r="B80" s="5">
+        <v>279</v>
+      </c>
+      <c r="C80" s="5">
+        <v>175</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>44907</v>
+      </c>
+      <c r="B81" s="5">
+        <v>314</v>
+      </c>
+      <c r="C81" s="5">
+        <v>223</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>44914</v>
+      </c>
+      <c r="B82" s="5">
+        <v>297</v>
+      </c>
+      <c r="C82" s="5">
+        <v>194</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>44921</v>
+      </c>
+      <c r="B83" s="5">
+        <v>320</v>
+      </c>
+      <c r="C83" s="5">
+        <v>201</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA17F78-A2D6-43B6-98CB-DA32DDCF538D}">
   <dimension ref="A1:D5106"/>
   <sheetViews>
@@ -107569,11 +111342,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9FAC10-EFC4-404C-B745-19CAE2A17C06}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -107581,32 +111354,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/ACM_analysis.xlsx
+++ b/analysis/ACM_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2850AF08-6EBC-429D-9101-75EC19E74C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A1CFE060-A753-48C8-A621-664D967704EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD564F2A-DABA-4B0F-9B33-AD8BFE41CCBF}"/>
   </bookViews>
@@ -760,7 +760,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> deaths of vaxxed / unvaxxed relative to baseline period ending on 9/1/21 shows clearly over time that the unvaccinated are dying relatively less and that it's consistent over time</a:t>
+              <a:t> deaths of vaxxed / unvaxxed relative to baseline period ending on 9/1/21 shows clearly over time that the unvaccinated are dying relatively less and that it's consistent over time. You can see the final result is completely invariant to the choice of </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2111,10 +2111,10 @@
       <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34613,8 +34613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4F34D4-0D0E-4AFA-AB93-AED9582807F1}">
   <dimension ref="A1:Q246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis/ACM_analysis.xlsx
+++ b/analysis/ACM_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A1CFE060-A753-48C8-A621-664D967704EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4D0B1238-8CF4-4665-B03B-60BCF8ACCD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD564F2A-DABA-4B0F-9B33-AD8BFE41CCBF}"/>
   </bookViews>
@@ -34613,7 +34613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4F34D4-0D0E-4AFA-AB93-AED9582807F1}">
   <dimension ref="A1:Q246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
